--- a/biology/Médecine/1878_en_santé_et_médecine/1878_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1878_en_santé_et_médecine/1878_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1878_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1878_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1878 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1878_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1878_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er avril et 20 mai : ouverture des premières écoles laïques d'infirmières et d'infirmiers à Paris, à la Salpêtrière et à Bicêtre sous l'impulsion de Désiré-Magloire Bourneville[1] Les premiers cours destinés à former les infirmières sont créés 20 ans après Florence Nightingale au Royaume-Uni, mais la reconnaissance de la fonction soignante par l’État ne se fait en France qu'en 1922, avec la création d'un diplôme d'Etat d'infirmière.
-24 octobre : début d’une épidémie de fièvre jaune au Sénégal[2] puis au Sahel.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er avril et 20 mai : ouverture des premières écoles laïques d'infirmières et d'infirmiers à Paris, à la Salpêtrière et à Bicêtre sous l'impulsion de Désiré-Magloire Bourneville Les premiers cours destinés à former les infirmières sont créés 20 ans après Florence Nightingale au Royaume-Uni, mais la reconnaissance de la fonction soignante par l’État ne se fait en France qu'en 1922, avec la création d'un diplôme d'Etat d'infirmière.
+24 octobre : début d’une épidémie de fièvre jaune au Sénégal puis au Sahel.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1878_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1878_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>28 janvier : Jean Clunet (mort en 1917 du typhus), médecin militaire français.
 16 février : Paul Delaunay (mort en 1958), médecin et historien français.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1878_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1878_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>7 janvier : François Raspail (né en 1794), médecin, chimiste et homme politique français.
 10 février : Claude Bernard (né en 1813), médecin et physiologiste français.
